--- a/итоговые_данные.xlsx
+++ b/итоговые_данные.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,293 +434,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Форма </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Зона </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Поз. </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Обозначение </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Наименвание</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Кол </t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>А2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ИЗПА.2512</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Панель монтажная</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Л,Г</t>
-        </is>
+          <t>ИЗПА.5177-02.00.003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Панель ВА откидная</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Г</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>А3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>ИЗПА.5177-02.00.002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Панель ВА откидная</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Л</t>
         </is>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>ИЗПА.5177-02.00.004</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Ручка</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Л</t>
         </is>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>А2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ИЗПА.2512</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Панель монтажная</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Л,Г</t>
-        </is>
+          <t>ИЗПА.5177-02.00.006</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Скоба</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Л</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>А3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ИЗПА.5177-02.00.002</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Панель ВА откидная</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>16</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ИЗПА.5177-02.00.006</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Скоба</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>А2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>ИЗПА.2512</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Панель монтажная</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Л,Г</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>А3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ИЗПА.5177-02.00.002</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Панель ВА откидная</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>А3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="D6" t="n">
         <v>15</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ИЗПА.5177-02.00.003</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Панель ВА откидная</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Г</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/итоговые_данные.xlsx
+++ b/итоговые_данные.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,27 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ИЗПА.5177-02.00.001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ось</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
